--- a/biology/Botanique/Astydamia/Astydamia.xlsx
+++ b/biology/Botanique/Astydamia/Astydamia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Astydamia, est un  genre monospécifique de plantes herbacées appartenant à la famille des Apiaceae. Il ne contient qu'une seule espèce Astydamia latifolia, originaire de l'Afrique du Nord-ouest et des îles Canaries.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom d'Astydamia a été attribué en référence à Astydamie, personnage de la mythologie grecque[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom d'Astydamia a été attribué en référence à Astydamie, personnage de la mythologie grecque.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Astydamia canariensis (Spreng.) DC.
 Astydamia ifniensis Caball.
@@ -579,12 +595,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Plante bisannuelle ou pérenne.
 Tiges et feuilles charnues, profondément pennées ou lobées, vert clair ou vert glauque.
 Fleurs jaunes en ombelles
-Fruits plus ou moins charnus[2].
+Fruits plus ou moins charnus.
 			Détail des feuilles
 			Inflorescence
 			Infructescence.
@@ -616,9 +634,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Astydamia latifolia est présente sur quelques sites dispersées de dunes côtières des îles Canaries, de Madère, du nord de la Mauritanie et du sud du Maroc[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Astydamia latifolia est présente sur quelques sites dispersées de dunes côtières des îles Canaries, de Madère, du nord de la Mauritanie et du sud du Maroc.
 </t>
         </is>
       </c>
@@ -647,9 +667,11 @@
           <t>Propriétés</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plante comestible aux propriétés diurétiques et emménagogue, et aussi potentiellement abortives[2].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plante comestible aux propriétés diurétiques et emménagogue, et aussi potentiellement abortives.
 </t>
         </is>
       </c>
